--- a/Staff Schedules.xlsx
+++ b/Staff Schedules.xlsx
@@ -252,18 +252,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1D3F67EB-8B96-4220-89CB-55E2565F4126}" diskRevisions="1" revisionId="169" version="7">
-  <header guid="{B53FE44D-579F-461D-9705-ACB26C9041F9}" dateTime="2017-09-18T14:50:48" maxSheetId="3" userName="CPaddack" r:id="rId29" minRId="163">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{02320C6C-59B9-4644-B2CC-513FDCA7E392}" dateTime="2017-09-18T14:51:31" maxSheetId="3" userName="CPaddack" r:id="rId30" minRId="164" maxRId="165">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
   <header guid="{1D3F67EB-8B96-4220-89CB-55E2565F4126}" dateTime="2017-09-19T11:16:09" maxSheetId="3" userName="CPaddack" r:id="rId31" minRId="166" maxRId="168">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -271,55 +259,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="163" sId="1">
-    <oc r="D8" t="inlineStr">
-      <is>
-        <t>PAYDAY</t>
-      </is>
-    </oc>
-    <nc r="D8" t="inlineStr">
-      <is>
-        <t>NON-PAYDAY</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="164" sId="1" eol="1" ref="A12:XFD12" action="insertRow"/>
-  <rcc rId="165" sId="1">
-    <nc r="A12" t="inlineStr">
-      <is>
-        <t>Edson Bandoy</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="A12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
